--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -1934,6 +1934,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1942,15 +1951,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2010,7 +2010,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2054,7 @@
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2100,7 @@
             <xdr:cNvPr id="2" name="pole tekstowe 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
             <xdr:cNvPr id="3" name="pole tekstowe 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3615,65 +3615,65 @@
       <c r="L12" s="32"/>
     </row>
     <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="112"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="109"/>
+      <c r="E17" s="112"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="111"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="111"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="107"/>
+      <c r="E21" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3999,11 +3999,11 @@
       <c r="L16" s="32"/>
     </row>
     <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
     </row>
     <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="24" t="s">
@@ -4122,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,7 +4254,9 @@
         <v>COAL</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="73"/>
+      <c r="G10" s="73">
+        <v>30</v>
+      </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4297,7 +4299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -4764,14 +4766,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4970,27 +4970,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5015,9 +5008,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="185">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1053,14 +1053,39 @@
   </si>
   <si>
     <t>Domestic mining of coal</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>Low Voltage Electricity</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>TRANS_HV_LV</t>
+  </si>
+  <si>
+    <t>Transmission high voltege into low voltage</t>
+  </si>
+  <si>
+    <t>Transmission High Voltage into low voltage</t>
+  </si>
+  <si>
+    <t>\I: Transmission and distribution</t>
+  </si>
+  <si>
+    <t>hv_demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1744,7 +1769,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1857,6 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1886,7 +1910,6 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1970,6 +1993,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1"/>
@@ -2010,7 +2036,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2080,7 @@
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2115,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2100,7 +2126,7 @@
             <xdr:cNvPr id="2" name="pole tekstowe 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2300,7 +2326,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -2311,7 +2337,7 @@
             <xdr:cNvPr id="3" name="pole tekstowe 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3112,16 +3138,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3381,10 +3407,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,22 +3458,22 @@
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="34"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -3471,14 +3497,14 @@
       <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="57" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -3502,7 +3528,7 @@
       <c r="J7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="59" t="s">
         <v>60</v>
       </c>
       <c r="L7" s="34"/>
@@ -3576,114 +3602,139 @@
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F12" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G12" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64" t="s">
+      <c r="J12" s="62"/>
+      <c r="K12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="107" t="s">
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="104" t="s">
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D17" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="109"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="101" t="s">
+      <c r="E17" s="107"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D18" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="112"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="102" t="s">
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D19" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="111"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="E19" s="109"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D20" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="112"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="102" t="s">
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D21" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="111"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="103" t="s">
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D22" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3692,10 +3743,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,183 +3986,223 @@
       <c r="K13" s="48"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="52" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="48"/>
       <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="52" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="107" t="s">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="21" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-    </row>
-    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D22" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="105" t="s">
+      <c r="E22" s="113"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D23" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="118"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="102" t="s">
+      <c r="E23" s="116"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D24" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="116"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="101" t="s">
+      <c r="E24" s="114"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D25" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="117"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="102" t="s">
+      <c r="E25" s="115"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D26" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="101" t="s">
+      <c r="E26" s="114"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D27" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="102" t="s">
+      <c r="E27" s="115"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D28" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="116"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="101" t="s">
+      <c r="E28" s="114"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D29" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="117"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="102" t="s">
+      <c r="E29" s="115"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D30" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="116"/>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="103" t="s">
+      <c r="E30" s="114"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D31" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="113"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="E31" s="111"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4122,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -4148,27 +4239,27 @@
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4180,14 +4271,14 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="66" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4199,14 +4290,14 @@
       <c r="F7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="68" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="27"/>
@@ -4214,14 +4305,14 @@
       <c r="F8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="70" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="C9" s="71" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
@@ -4234,14 +4325,14 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="73">
+      <c r="G9" s="72">
         <v>30</v>
       </c>
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="72" t="str">
+      <c r="C10" s="71" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_COAL</v>
       </c>
@@ -4254,27 +4345,27 @@
         <v>COAL</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="73">
+      <c r="G10" s="72">
         <v>30</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="74" t="str">
+      <c r="C11" s="73" t="str">
         <f>FI_Process!E11</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="D11" s="74" t="str">
         <f>FI_Process!F11</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E11" s="75" t="str">
+      <c r="E11" s="74" t="str">
         <f>FI_Comm!E10</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76">
+      <c r="F11" s="74"/>
+      <c r="G11" s="75">
         <v>20</v>
       </c>
       <c r="H11" s="34"/>
@@ -4297,10 +4388,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,10 +4426,10 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
@@ -4349,23 +4440,23 @@
     </row>
     <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="65" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4392,7 +4483,7 @@
       <c r="K6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="66" t="s">
         <v>111</v>
       </c>
       <c r="M6" s="34"/>
@@ -4402,7 +4493,7 @@
     </row>
     <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4429,7 +4520,7 @@
       <c r="K7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="68" t="s">
         <v>117</v>
       </c>
       <c r="M7" s="34"/>
@@ -4442,7 +4533,7 @@
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="15"/>
@@ -4463,20 +4554,20 @@
       <c r="K8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="80" t="s">
         <v>77</v>
       </c>
       <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
+      <c r="O8" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="P8" s="84" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="C9" s="71" t="str">
         <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
@@ -4489,7 +4580,7 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>FI_Comm!E11</f>
+        <f>FI_Comm!E12</f>
         <v>ELC_HV</v>
       </c>
       <c r="G9" s="11">
@@ -4507,22 +4598,22 @@
       <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="72">
         <v>1</v>
       </c>
       <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="O9" s="83">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="83">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>172</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -4535,125 +4626,157 @@
       <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="74">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="74">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="74">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="74">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="75">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
-      <c r="O10" s="98">
+      <c r="O10" s="96">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="96">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="74" t="str">
-        <f>FI_Process!E15</f>
+      <c r="C11" s="73" t="str">
+        <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D11" s="75" t="str">
-        <f>FI_Process!F15</f>
+      <c r="D11" s="74" t="str">
+        <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E11" s="75" t="str">
+      <c r="E11" s="74" t="str">
         <f>FI_Comm!E10</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F11" s="75" t="str">
-        <f>FI_Comm!E11</f>
+      <c r="F11" s="74" t="str">
+        <f>FI_Comm!E12</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="74">
         <v>2</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="74">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="74">
         <v>0.6</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <v>0.5</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="74">
         <v>1</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="75">
         <v>1</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="O11" s="98">
+      <c r="O11" s="96">
         <f>G11*H11*J11</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P11" s="98">
+      <c r="P11" s="96">
         <f>O11/I11</f>
         <v>52.56</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="O12" s="99">
+    <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="74" t="str">
+        <f>FI_Process!E17</f>
+        <v>TRANS_HV_LV</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="74" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="F12" s="74" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74">
+        <v>1</v>
+      </c>
+      <c r="I12" s="118">
+        <f>133/157</f>
+        <v>0.84713375796178347</v>
+      </c>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="34"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="O13" s="97">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-    </row>
+    <row r="20" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4663,9 +4786,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4677,83 +4802,90 @@
     <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="54"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="85">
         <v>2023</v>
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="92" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="94"/>
+      <c r="E8" s="95" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
+      <c r="C9" s="81" t="str">
         <f>FI_Comm!E11</f>
-        <v>ELC_HV</v>
+        <v>ELC_LV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="83">
-        <v>100</v>
+      <c r="E9" s="119">
+        <f>I8*'Power Plants'!I12</f>
+        <v>84.713375796178354</v>
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -4766,15 +4898,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4969,6 +5092,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4981,14 +5113,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5007,18 +5131,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
